--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Itga4.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H2">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N2">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O2">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P2">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q2">
-        <v>7.601357175560001</v>
+        <v>13.74224755231067</v>
       </c>
       <c r="R2">
-        <v>68.41221458004</v>
+        <v>123.680227970796</v>
       </c>
       <c r="S2">
-        <v>7.788586619818233E-05</v>
+        <v>0.0001527274501433809</v>
       </c>
       <c r="T2">
-        <v>7.788586619818232E-05</v>
+        <v>0.0001527274501433809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H3">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N3">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O3">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P3">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q3">
-        <v>6.375500054056888</v>
+        <v>9.336345492674667</v>
       </c>
       <c r="R3">
-        <v>57.37950048651199</v>
+        <v>84.027109434072</v>
       </c>
       <c r="S3">
-        <v>6.53253534452151E-05</v>
+        <v>0.00010376150155395</v>
       </c>
       <c r="T3">
-        <v>6.53253534452151E-05</v>
+        <v>0.00010376150155395</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H4">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N4">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O4">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P4">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q4">
-        <v>40.079632934952</v>
+        <v>30.605919559922</v>
       </c>
       <c r="R4">
-        <v>360.7166964145679</v>
+        <v>275.453276039298</v>
       </c>
       <c r="S4">
-        <v>0.0004106683656545791</v>
+        <v>0.0003401455282978329</v>
       </c>
       <c r="T4">
-        <v>0.000410668365654579</v>
+        <v>0.0003401455282978329</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H5">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N5">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O5">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P5">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q5">
-        <v>1091.462368750046</v>
+        <v>1467.329962565512</v>
       </c>
       <c r="R5">
-        <v>9823.161318750412</v>
+        <v>13205.9696630896</v>
       </c>
       <c r="S5">
-        <v>0.01118346238039452</v>
+        <v>0.01630748993922264</v>
       </c>
       <c r="T5">
-        <v>0.01118346238039452</v>
+        <v>0.01630748993922264</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J6">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N6">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O6">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P6">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q6">
-        <v>623.6804529091</v>
+        <v>769.9563409535843</v>
       </c>
       <c r="R6">
-        <v>5613.1240761819</v>
+        <v>6929.60706858226</v>
       </c>
       <c r="S6">
-        <v>0.006390423602495863</v>
+        <v>0.008557076870282109</v>
       </c>
       <c r="T6">
-        <v>0.006390423602495863</v>
+        <v>0.008557076870282109</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J7">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N7">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O7">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P7">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q7">
-        <v>523.100634452591</v>
+        <v>523.1006344525911</v>
       </c>
       <c r="R7">
-        <v>4707.905710073319</v>
+        <v>4707.90571007332</v>
       </c>
       <c r="S7">
-        <v>0.005359851547846423</v>
+        <v>0.005813592410136416</v>
       </c>
       <c r="T7">
-        <v>0.005359851547846424</v>
+        <v>0.005813592410136415</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J8">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N8">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O8">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P8">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q8">
-        <v>3288.47639230422</v>
+        <v>1714.801144876403</v>
       </c>
       <c r="R8">
-        <v>29596.28753073798</v>
+        <v>15433.21030388763</v>
       </c>
       <c r="S8">
-        <v>0.03369475034147684</v>
+        <v>0.01905781462333555</v>
       </c>
       <c r="T8">
-        <v>0.03369475034147684</v>
+        <v>0.01905781462333555</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J9">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N9">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O9">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P9">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q9">
-        <v>89552.92176822595</v>
+        <v>82212.17123675933</v>
       </c>
       <c r="R9">
-        <v>805976.2959140335</v>
+        <v>739909.5411308339</v>
       </c>
       <c r="S9">
-        <v>0.9175870468134509</v>
+        <v>0.9136828045009302</v>
       </c>
       <c r="T9">
-        <v>0.917587046813451</v>
+        <v>0.9136828045009301</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H10">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I10">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J10">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N10">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O10">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P10">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q10">
-        <v>9.673637338900001</v>
+        <v>17.58354785266222</v>
       </c>
       <c r="R10">
-        <v>87.06273605010001</v>
+        <v>158.25193067396</v>
       </c>
       <c r="S10">
-        <v>9.911909229180503E-05</v>
+        <v>0.0001954185745664052</v>
       </c>
       <c r="T10">
-        <v>9.911909229180503E-05</v>
+        <v>0.0001954185745664052</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H11">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I11">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J11">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N11">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O11">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P11">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q11">
-        <v>8.11358734403111</v>
+        <v>11.94608648363556</v>
       </c>
       <c r="R11">
-        <v>73.02228609628</v>
+        <v>107.51477835272</v>
       </c>
       <c r="S11">
-        <v>8.313433557579371E-05</v>
+        <v>0.0001327654243523789</v>
       </c>
       <c r="T11">
-        <v>8.313433557579372E-05</v>
+        <v>0.0001327654243523789</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H12">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I12">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J12">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N12">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O12">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P12">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q12">
-        <v>51.00613281738</v>
+        <v>39.16103600288667</v>
       </c>
       <c r="R12">
-        <v>459.05519535642</v>
+        <v>352.44932402598</v>
       </c>
       <c r="S12">
-        <v>0.0005226246766398666</v>
+        <v>0.0004352246712866382</v>
       </c>
       <c r="T12">
-        <v>0.0005226246766398666</v>
+        <v>0.0004352246712866382</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H13">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I13">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J13">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N13">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O13">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P13">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q13">
-        <v>1389.016576972892</v>
+        <v>1877.485215879225</v>
       </c>
       <c r="R13">
-        <v>12501.14919275603</v>
+        <v>16897.36694291302</v>
       </c>
       <c r="S13">
-        <v>0.0142322952023627</v>
+        <v>0.02086583934772119</v>
       </c>
       <c r="T13">
-        <v>0.01423229520236271</v>
+        <v>0.02086583934772118</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H14">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N14">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O14">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P14">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q14">
-        <v>6.666237092260001</v>
+        <v>11.670206602638</v>
       </c>
       <c r="R14">
-        <v>59.99613383034001</v>
+        <v>105.031859423742</v>
       </c>
       <c r="S14">
-        <v>6.830433542611054E-05</v>
+        <v>0.0001296993734309245</v>
       </c>
       <c r="T14">
-        <v>6.830433542611054E-05</v>
+        <v>0.0001296993734309245</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H15">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N15">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O15">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P15">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q15">
-        <v>5.591185095039111</v>
+        <v>7.928621602716</v>
       </c>
       <c r="R15">
-        <v>50.320665855352</v>
+        <v>71.35759442444402</v>
       </c>
       <c r="S15">
-        <v>5.728901880859264E-05</v>
+        <v>8.811645663674084E-05</v>
       </c>
       <c r="T15">
-        <v>5.728901880859265E-05</v>
+        <v>8.811645663674082E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H16">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N16">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O16">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P16">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q16">
-        <v>35.14903056709201</v>
+        <v>25.991192719269</v>
       </c>
       <c r="R16">
-        <v>316.341275103828</v>
+        <v>233.920734473421</v>
       </c>
       <c r="S16">
-        <v>0.0003601478826105373</v>
+        <v>0.0002888587601910653</v>
       </c>
       <c r="T16">
-        <v>0.0003601478826105373</v>
+        <v>0.0002888587601910653</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H17">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N17">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O17">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P17">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q17">
-        <v>957.1905068165004</v>
+        <v>1246.087566986181</v>
       </c>
       <c r="R17">
-        <v>8614.714561348503</v>
+        <v>11214.78810287563</v>
       </c>
       <c r="S17">
-        <v>0.009807671185321977</v>
+        <v>0.01384866456791263</v>
       </c>
       <c r="T17">
-        <v>0.009807671185321979</v>
+        <v>0.01384866456791263</v>
       </c>
     </row>
   </sheetData>
